--- a/Project-KTXForecasting/Result/Forecasting_2DFUTR13_동해선.xlsx
+++ b/Project-KTXForecasting/Result/Forecasting_2DFUTR13_동해선.xlsx
@@ -566,25 +566,25 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>103715826963.522</v>
+        <v>82834734151.99446</v>
       </c>
       <c r="C5">
-        <v>322049.4169588294</v>
+        <v>287810.239831724</v>
       </c>
       <c r="D5">
-        <v>0.1963237761740656</v>
+        <v>0.2154180179623953</v>
       </c>
       <c r="E5">
-        <v>247174.2916666667</v>
+        <v>257811.0677083333</v>
       </c>
       <c r="F5">
-        <v>0.3697506312239132</v>
+        <v>0.4156243580098211</v>
       </c>
       <c r="G5">
-        <v>178072.25</v>
+        <v>256037.75</v>
       </c>
       <c r="H5">
-        <v>0.3077300592587655</v>
+        <v>0.3877636612348411</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -933,7 +933,7 @@
         <v>583123.0625</v>
       </c>
       <c r="G2">
-        <v>399001.96875</v>
+        <v>754543.125</v>
       </c>
       <c r="H2">
         <v>571843.1875</v>
@@ -986,7 +986,7 @@
         <v>584595.6875</v>
       </c>
       <c r="G3">
-        <v>441707.46875</v>
+        <v>778692.75</v>
       </c>
       <c r="H3">
         <v>1060968.75</v>
@@ -1039,7 +1039,7 @@
         <v>498774.875</v>
       </c>
       <c r="G4">
-        <v>578485.8125</v>
+        <v>837822.0625</v>
       </c>
       <c r="H4">
         <v>1082025.625</v>
@@ -1092,7 +1092,7 @@
         <v>563220.0625</v>
       </c>
       <c r="G5">
-        <v>749712.375</v>
+        <v>910089.8125</v>
       </c>
       <c r="H5">
         <v>665716.625</v>
@@ -1145,7 +1145,7 @@
         <v>551182.3125</v>
       </c>
       <c r="G6">
-        <v>885460.75</v>
+        <v>987259.9375</v>
       </c>
       <c r="H6">
         <v>369796.15625</v>
@@ -1198,7 +1198,7 @@
         <v>452672.03125</v>
       </c>
       <c r="G7">
-        <v>968612.25</v>
+        <v>980517.25</v>
       </c>
       <c r="H7">
         <v>372189.5</v>
@@ -1251,7 +1251,7 @@
         <v>523835.25</v>
       </c>
       <c r="G8">
-        <v>907550</v>
+        <v>821578.625</v>
       </c>
       <c r="H8">
         <v>446814.5625</v>
@@ -1304,7 +1304,7 @@
         <v>631631.25</v>
       </c>
       <c r="G9">
-        <v>764123.125</v>
+        <v>704787</v>
       </c>
       <c r="H9">
         <v>46955.765625</v>
@@ -1357,7 +1357,7 @@
         <v>447060.4375</v>
       </c>
       <c r="G10">
-        <v>656472.8125</v>
+        <v>650722.0625</v>
       </c>
       <c r="H10">
         <v>45097.87109375</v>
@@ -1410,7 +1410,7 @@
         <v>481938.53125</v>
       </c>
       <c r="G11">
-        <v>593599.3125</v>
+        <v>651018.0625</v>
       </c>
       <c r="H11">
         <v>-159597.5</v>
@@ -1463,7 +1463,7 @@
         <v>818844.625</v>
       </c>
       <c r="G12">
-        <v>725292.875</v>
+        <v>824864.4375</v>
       </c>
       <c r="H12">
         <v>-747689.125</v>
@@ -1516,7 +1516,7 @@
         <v>876279.875</v>
       </c>
       <c r="G13">
-        <v>987837.625</v>
+        <v>891213.1875</v>
       </c>
       <c r="H13">
         <v>629959.3125</v>
@@ -1569,7 +1569,7 @@
         <v>1137818</v>
       </c>
       <c r="G14">
-        <v>1146133.875</v>
+        <v>858990.8125</v>
       </c>
       <c r="H14">
         <v>-499868.5</v>
@@ -1622,7 +1622,7 @@
         <v>1129696.875</v>
       </c>
       <c r="G15">
-        <v>1311292.875</v>
+        <v>833117.25</v>
       </c>
       <c r="H15">
         <v>991886.1875</v>
@@ -1675,7 +1675,7 @@
         <v>447966.125</v>
       </c>
       <c r="G16">
-        <v>1535626.75</v>
+        <v>876349.625</v>
       </c>
       <c r="H16">
         <v>-1211377.5</v>
@@ -1728,7 +1728,7 @@
         <v>-21895.392578125</v>
       </c>
       <c r="G17">
-        <v>1644914.125</v>
+        <v>1026641.125</v>
       </c>
       <c r="H17">
         <v>-51211.69921875</v>
@@ -1781,7 +1781,7 @@
         <v>7080.23828125</v>
       </c>
       <c r="G18">
-        <v>1516611</v>
+        <v>897900.875</v>
       </c>
       <c r="H18">
         <v>507164.84375</v>
@@ -1834,7 +1834,7 @@
         <v>-17564.578125</v>
       </c>
       <c r="G19">
-        <v>1388307.875</v>
+        <v>769160.5625</v>
       </c>
       <c r="H19">
         <v>842750.625</v>
@@ -1887,7 +1887,7 @@
         <v>-270144.03125</v>
       </c>
       <c r="G20">
-        <v>1694370.125</v>
+        <v>983361.5</v>
       </c>
       <c r="H20">
         <v>623346.625</v>
@@ -1940,7 +1940,7 @@
         <v>185649.734375</v>
       </c>
       <c r="G21">
-        <v>1940851.75</v>
+        <v>1169731.125</v>
       </c>
       <c r="H21">
         <v>-624278.125</v>
@@ -1993,7 +1993,7 @@
         <v>121747.875</v>
       </c>
       <c r="G22">
-        <v>1856205</v>
+        <v>1160897.625</v>
       </c>
       <c r="H22">
         <v>845329</v>
@@ -2046,7 +2046,7 @@
         <v>-40041.0234375</v>
       </c>
       <c r="G23">
-        <v>1737811.5</v>
+        <v>1132139.375</v>
       </c>
       <c r="H23">
         <v>1932998.75</v>
@@ -2099,7 +2099,7 @@
         <v>-241653.078125</v>
       </c>
       <c r="G24">
-        <v>1614868.375</v>
+        <v>1159138.625</v>
       </c>
       <c r="H24">
         <v>-792435.8125</v>
@@ -2152,7 +2152,7 @@
         <v>30104.984375</v>
       </c>
       <c r="G25">
-        <v>1610540.625</v>
+        <v>1228540.375</v>
       </c>
       <c r="H25">
         <v>116632.421875</v>
@@ -2205,7 +2205,7 @@
         <v>-23133.314453125</v>
       </c>
       <c r="G26">
-        <v>1680295</v>
+        <v>1217455.625</v>
       </c>
       <c r="H26">
         <v>2245020.5</v>
@@ -2258,7 +2258,7 @@
         <v>-37860.390625</v>
       </c>
       <c r="G27">
-        <v>1763073.5</v>
+        <v>1181762.125</v>
       </c>
       <c r="H27">
         <v>-288375.75</v>
@@ -2311,7 +2311,7 @@
         <v>-143646.71875</v>
       </c>
       <c r="G28">
-        <v>2006278.375</v>
+        <v>1345315.5</v>
       </c>
       <c r="H28">
         <v>1250027.875</v>
@@ -2364,7 +2364,7 @@
         <v>-113513.921875</v>
       </c>
       <c r="G29">
-        <v>2302482</v>
+        <v>1644454.875</v>
       </c>
       <c r="H29">
         <v>2148256.25</v>
@@ -2417,7 +2417,7 @@
         <v>87490.3125</v>
       </c>
       <c r="G30">
-        <v>2352381.5</v>
+        <v>1675096.5</v>
       </c>
       <c r="H30">
         <v>1763655.25</v>
@@ -2470,7 +2470,7 @@
         <v>-344493.75</v>
       </c>
       <c r="G31">
-        <v>2275593.5</v>
+        <v>1551379</v>
       </c>
       <c r="H31">
         <v>-318887.09375</v>
@@ -2523,7 +2523,7 @@
         <v>67546.828125</v>
       </c>
       <c r="G32">
-        <v>2192966.5</v>
+        <v>1598964.375</v>
       </c>
       <c r="H32">
         <v>1071817.25</v>
@@ -2576,7 +2576,7 @@
         <v>43835.75</v>
       </c>
       <c r="G33">
-        <v>2056393.25</v>
+        <v>1685704.875</v>
       </c>
       <c r="H33">
         <v>-1013693.0625</v>
@@ -2629,7 +2629,7 @@
         <v>-171347.078125</v>
       </c>
       <c r="G34">
-        <v>1974164</v>
+        <v>1697908.375</v>
       </c>
       <c r="H34">
         <v>941244</v>
@@ -2778,54 +2778,54 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>10119687953.33671</v>
+        <v>8953228280.83433</v>
       </c>
       <c r="C5">
-        <v>100596.659752383</v>
+        <v>94621.50009820353</v>
       </c>
       <c r="D5">
-        <v>0.08764726770918918</v>
+        <v>0.1103504870861821</v>
       </c>
       <c r="E5">
-        <v>86763.17447916667</v>
+        <v>77830.86588541667</v>
       </c>
       <c r="F5">
-        <v>0.2767290328461515</v>
+        <v>0.2681436199154896</v>
       </c>
       <c r="G5">
-        <v>66863.15625</v>
+        <v>74216.484375</v>
       </c>
       <c r="H5">
-        <v>0.2669468750237913</v>
+        <v>0.2630640924546672</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>31419575229.71901</v>
+        <v>10119687953.33671</v>
       </c>
       <c r="C6">
-        <v>177255.6775669513</v>
+        <v>100596.659752383</v>
       </c>
       <c r="D6">
-        <v>0.3554702102640109</v>
+        <v>0.08764726770918918</v>
       </c>
       <c r="E6">
-        <v>138362.6158854167</v>
+        <v>86763.17447916667</v>
       </c>
       <c r="F6">
-        <v>0.4658048801110821</v>
+        <v>0.2767290328461515</v>
       </c>
       <c r="G6">
-        <v>103526.4375</v>
+        <v>66863.15625</v>
       </c>
       <c r="H6">
-        <v>0.3311284651374552</v>
+        <v>0.2669468750237913</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3095,10 +3095,10 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>13</v>
@@ -3148,10 +3148,10 @@
         <v>265577.125</v>
       </c>
       <c r="G2">
+        <v>485190.90625</v>
+      </c>
+      <c r="H2">
         <v>237204.21875</v>
-      </c>
-      <c r="H2">
-        <v>684929.9375</v>
       </c>
       <c r="I2">
         <v>171813.046875</v>
@@ -3201,10 +3201,10 @@
         <v>264071.15625</v>
       </c>
       <c r="G3">
+        <v>459766.15625</v>
+      </c>
+      <c r="H3">
         <v>304313.34375</v>
-      </c>
-      <c r="H3">
-        <v>638932.5</v>
       </c>
       <c r="I3">
         <v>151786.9375</v>
@@ -3254,10 +3254,10 @@
         <v>193807.296875</v>
       </c>
       <c r="G4">
+        <v>364570.34375</v>
+      </c>
+      <c r="H4">
         <v>325730.3125</v>
-      </c>
-      <c r="H4">
-        <v>471345.8125</v>
       </c>
       <c r="I4">
         <v>181626.5</v>
@@ -3307,10 +3307,10 @@
         <v>267520.15625</v>
       </c>
       <c r="G5">
+        <v>278442.8125</v>
+      </c>
+      <c r="H5">
         <v>382604.03125</v>
-      </c>
-      <c r="H5">
-        <v>331922.71875</v>
       </c>
       <c r="I5">
         <v>180290.21875</v>
@@ -3360,10 +3360,10 @@
         <v>252972.65625</v>
       </c>
       <c r="G6">
+        <v>122875</v>
+      </c>
+      <c r="H6">
         <v>320902.5</v>
-      </c>
-      <c r="H6">
-        <v>204236.1875</v>
       </c>
       <c r="I6">
         <v>108907.921875</v>
@@ -3413,10 +3413,10 @@
         <v>219685</v>
       </c>
       <c r="G7">
+        <v>129466.484375</v>
+      </c>
+      <c r="H7">
         <v>393345.65625</v>
-      </c>
-      <c r="H7">
-        <v>186426.3125</v>
       </c>
       <c r="I7">
         <v>120440.7421875</v>
@@ -3466,10 +3466,10 @@
         <v>258681.953125</v>
       </c>
       <c r="G8">
+        <v>203027.875</v>
+      </c>
+      <c r="H8">
         <v>329606.5</v>
-      </c>
-      <c r="H8">
-        <v>186556.96875</v>
       </c>
       <c r="I8">
         <v>103951.5234375</v>
@@ -3519,10 +3519,10 @@
         <v>259837.59375</v>
       </c>
       <c r="G9">
+        <v>232718.59375</v>
+      </c>
+      <c r="H9">
         <v>258203.109375</v>
-      </c>
-      <c r="H9">
-        <v>237515.15625</v>
       </c>
       <c r="I9">
         <v>106008.640625</v>
@@ -3572,10 +3572,10 @@
         <v>216301.03125</v>
       </c>
       <c r="G10">
+        <v>234496</v>
+      </c>
+      <c r="H10">
         <v>200367.640625</v>
-      </c>
-      <c r="H10">
-        <v>214719.15625</v>
       </c>
       <c r="I10">
         <v>88467.4453125</v>
@@ -3625,10 +3625,10 @@
         <v>205469.828125</v>
       </c>
       <c r="G11">
+        <v>240549.625</v>
+      </c>
+      <c r="H11">
         <v>187452.09375</v>
-      </c>
-      <c r="H11">
-        <v>259196.296875</v>
       </c>
       <c r="I11">
         <v>65201.57421875</v>
@@ -3678,10 +3678,10 @@
         <v>380440.96875</v>
       </c>
       <c r="G12">
+        <v>188849.9375</v>
+      </c>
+      <c r="H12">
         <v>188413.1875</v>
-      </c>
-      <c r="H12">
-        <v>434422.21875</v>
       </c>
       <c r="I12">
         <v>36864.73046875</v>
@@ -3731,10 +3731,10 @@
         <v>511937.28125</v>
       </c>
       <c r="G13">
+        <v>349349.375</v>
+      </c>
+      <c r="H13">
         <v>215686.3125</v>
-      </c>
-      <c r="H13">
-        <v>643650.6875</v>
       </c>
       <c r="I13">
         <v>90302.34375</v>
@@ -3784,10 +3784,10 @@
         <v>605389.5625</v>
       </c>
       <c r="G14">
+        <v>382384.4375</v>
+      </c>
+      <c r="H14">
         <v>451195.6875</v>
-      </c>
-      <c r="H14">
-        <v>611490.0625</v>
       </c>
       <c r="I14">
         <v>86602.6484375</v>
@@ -3837,10 +3837,10 @@
         <v>539760.0625</v>
       </c>
       <c r="G15">
+        <v>386562.125</v>
+      </c>
+      <c r="H15">
         <v>709406.25</v>
-      </c>
-      <c r="H15">
-        <v>545463.875</v>
       </c>
       <c r="I15">
         <v>71835.40625</v>
@@ -3890,10 +3890,10 @@
         <v>215429.96875</v>
       </c>
       <c r="G16">
+        <v>487529.5625</v>
+      </c>
+      <c r="H16">
         <v>24219.5703125</v>
-      </c>
-      <c r="H16">
-        <v>532390.9375</v>
       </c>
       <c r="I16">
         <v>34278.45703125</v>
@@ -3943,10 +3943,10 @@
         <v>-16727.140625</v>
       </c>
       <c r="G17">
+        <v>524823.1875</v>
+      </c>
+      <c r="H17">
         <v>415.3948669433594</v>
-      </c>
-      <c r="H17">
-        <v>512659.0625</v>
       </c>
       <c r="I17">
         <v>1959.380859375</v>
@@ -3996,10 +3996,10 @@
         <v>-42.35030364990234</v>
       </c>
       <c r="G18">
+        <v>809652.5625</v>
+      </c>
+      <c r="H18">
         <v>3078.094482421875</v>
-      </c>
-      <c r="H18">
-        <v>702477.9375</v>
       </c>
       <c r="I18">
         <v>30902.1484375</v>
@@ -4049,10 +4049,10 @@
         <v>-11589.49609375</v>
       </c>
       <c r="G19">
+        <v>1111633.625</v>
+      </c>
+      <c r="H19">
         <v>2450.18701171875</v>
-      </c>
-      <c r="H19">
-        <v>909479.6875</v>
       </c>
       <c r="I19">
         <v>21605.30078125</v>
@@ -4102,10 +4102,10 @@
         <v>-131284.109375</v>
       </c>
       <c r="G20">
+        <v>976847</v>
+      </c>
+      <c r="H20">
         <v>11806.2626953125</v>
-      </c>
-      <c r="H20">
-        <v>892277.3125</v>
       </c>
       <c r="I20">
         <v>5423.58740234375</v>
@@ -4155,10 +4155,10 @@
         <v>91481.421875</v>
       </c>
       <c r="G21">
+        <v>635633.3125</v>
+      </c>
+      <c r="H21">
         <v>1300.401489257812</v>
-      </c>
-      <c r="H21">
-        <v>719416.5625</v>
       </c>
       <c r="I21">
         <v>2971.40966796875</v>
@@ -4208,10 +4208,10 @@
         <v>57529.55078125</v>
       </c>
       <c r="G22">
+        <v>586367.875</v>
+      </c>
+      <c r="H22">
         <v>22492.181640625</v>
-      </c>
-      <c r="H22">
-        <v>615638.125</v>
       </c>
       <c r="I22">
         <v>14300.9423828125</v>
@@ -4261,10 +4261,10 @@
         <v>-10344.689453125</v>
       </c>
       <c r="G23">
+        <v>556235</v>
+      </c>
+      <c r="H23">
         <v>33845.30859375</v>
-      </c>
-      <c r="H23">
-        <v>507611.71875</v>
       </c>
       <c r="I23">
         <v>7036.3876953125</v>
@@ -4314,10 +4314,10 @@
         <v>-114066.0546875</v>
       </c>
       <c r="G24">
+        <v>465347.78125</v>
+      </c>
+      <c r="H24">
         <v>17640.23828125</v>
-      </c>
-      <c r="H24">
-        <v>330138.46875</v>
       </c>
       <c r="I24">
         <v>16048.3291015625</v>
@@ -4367,10 +4367,10 @@
         <v>12468.0283203125</v>
       </c>
       <c r="G25">
+        <v>653963.8125</v>
+      </c>
+      <c r="H25">
         <v>-13590.6259765625</v>
-      </c>
-      <c r="H25">
-        <v>366400.46875</v>
       </c>
       <c r="I25">
         <v>-1086.557373046875</v>
@@ -4420,10 +4420,10 @@
         <v>-19118.822265625</v>
       </c>
       <c r="G26">
+        <v>680268</v>
+      </c>
+      <c r="H26">
         <v>-9697.017578125</v>
-      </c>
-      <c r="H26">
-        <v>410606.625</v>
       </c>
       <c r="I26">
         <v>1048.742309570312</v>
@@ -4473,10 +4473,10 @@
         <v>-13792.9384765625</v>
       </c>
       <c r="G27">
+        <v>668955</v>
+      </c>
+      <c r="H27">
         <v>-4568.42724609375</v>
-      </c>
-      <c r="H27">
-        <v>469061.28125</v>
       </c>
       <c r="I27">
         <v>5924.20849609375</v>
@@ -4526,10 +4526,10 @@
         <v>-72888.3203125</v>
       </c>
       <c r="G28">
+        <v>797147.25</v>
+      </c>
+      <c r="H28">
         <v>6201.00732421875</v>
-      </c>
-      <c r="H28">
-        <v>539041.9375</v>
       </c>
       <c r="I28">
         <v>-1983.8740234375</v>
@@ -4579,10 +4579,10 @@
         <v>-58135.453125</v>
       </c>
       <c r="G29">
+        <v>857539.1875</v>
+      </c>
+      <c r="H29">
         <v>-12682.3603515625</v>
-      </c>
-      <c r="H29">
-        <v>521574.0625</v>
       </c>
       <c r="I29">
         <v>-721.1799926757812</v>
@@ -4632,10 +4632,10 @@
         <v>39849.1171875</v>
       </c>
       <c r="G30">
+        <v>904723</v>
+      </c>
+      <c r="H30">
         <v>-13444.8583984375</v>
-      </c>
-      <c r="H30">
-        <v>469582.3125</v>
       </c>
       <c r="I30">
         <v>-2615.26123046875</v>
@@ -4685,10 +4685,10 @@
         <v>-170830.703125</v>
       </c>
       <c r="G31">
+        <v>975335.125</v>
+      </c>
+      <c r="H31">
         <v>11775.0390625</v>
-      </c>
-      <c r="H31">
-        <v>422610.09375</v>
       </c>
       <c r="I31">
         <v>4929.3720703125</v>
@@ -4738,10 +4738,10 @@
         <v>30167.029296875</v>
       </c>
       <c r="G32">
+        <v>1000942.3125</v>
+      </c>
+      <c r="H32">
         <v>8674.1884765625</v>
-      </c>
-      <c r="H32">
-        <v>461178.75</v>
       </c>
       <c r="I32">
         <v>777.4833374023438</v>
@@ -4791,10 +4791,10 @@
         <v>16570.443359375</v>
       </c>
       <c r="G33">
+        <v>1000087.625</v>
+      </c>
+      <c r="H33">
         <v>-8924.6875</v>
-      </c>
-      <c r="H33">
-        <v>574140.9375</v>
       </c>
       <c r="I33">
         <v>51.2628173828125</v>
@@ -4844,10 +4844,10 @@
         <v>-75457.390625</v>
       </c>
       <c r="G34">
+        <v>1010999.5625</v>
+      </c>
+      <c r="H34">
         <v>-22962.54296875</v>
-      </c>
-      <c r="H34">
-        <v>642627.25</v>
       </c>
       <c r="I34">
         <v>-4348.9873046875</v>
@@ -5022,25 +5022,25 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>26716814106.74107</v>
+        <v>21921348470.62801</v>
       </c>
       <c r="C6">
-        <v>163452.7886172062</v>
+        <v>148058.5980976046</v>
       </c>
       <c r="D6">
-        <v>0.1982691839917317</v>
+        <v>0.1415623621683338</v>
       </c>
       <c r="E6">
-        <v>132395.685546875</v>
+        <v>105717.6171875</v>
       </c>
       <c r="F6">
-        <v>0.3851662309330866</v>
+        <v>0.2998446743973679</v>
       </c>
       <c r="G6">
-        <v>86946.1953125</v>
+        <v>76139.984375</v>
       </c>
       <c r="H6">
-        <v>0.2995695706716156</v>
+        <v>0.2638507868047686</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5366,7 +5366,7 @@
         <v>99186.1484375</v>
       </c>
       <c r="H2">
-        <v>413654.375</v>
+        <v>297872.75</v>
       </c>
       <c r="I2">
         <v>170315.03125</v>
@@ -5419,7 +5419,7 @@
         <v>135609.171875</v>
       </c>
       <c r="H3">
-        <v>352105.5625</v>
+        <v>297370.53125</v>
       </c>
       <c r="I3">
         <v>214629.6875</v>
@@ -5472,7 +5472,7 @@
         <v>201945.9375</v>
       </c>
       <c r="H4">
-        <v>223127.46875</v>
+        <v>307611.1875</v>
       </c>
       <c r="I4">
         <v>186711.28125</v>
@@ -5525,7 +5525,7 @@
         <v>206475.125</v>
       </c>
       <c r="H5">
-        <v>176690.46875</v>
+        <v>358124.21875</v>
       </c>
       <c r="I5">
         <v>157898.8125</v>
@@ -5578,7 +5578,7 @@
         <v>260466.9375</v>
       </c>
       <c r="H6">
-        <v>246520.578125</v>
+        <v>446241</v>
       </c>
       <c r="I6">
         <v>190043.296875</v>
@@ -5631,7 +5631,7 @@
         <v>325558.125</v>
       </c>
       <c r="H7">
-        <v>317783.71875</v>
+        <v>471952.25</v>
       </c>
       <c r="I7">
         <v>171651.453125</v>
@@ -5684,7 +5684,7 @@
         <v>342276.375</v>
       </c>
       <c r="H8">
-        <v>377659.84375</v>
+        <v>361709.5</v>
       </c>
       <c r="I8">
         <v>156837.890625</v>
@@ -5737,7 +5737,7 @@
         <v>291186.5625</v>
       </c>
       <c r="H9">
-        <v>358443.5</v>
+        <v>281278.46875</v>
       </c>
       <c r="I9">
         <v>135202.375</v>
@@ -5790,7 +5790,7 @@
         <v>375628.125</v>
       </c>
       <c r="H10">
-        <v>216508.046875</v>
+        <v>371582.75</v>
       </c>
       <c r="I10">
         <v>133396.25</v>
@@ -5843,7 +5843,7 @@
         <v>352725.375</v>
       </c>
       <c r="H11">
-        <v>88193.3515625</v>
+        <v>422831.1875</v>
       </c>
       <c r="I11">
         <v>156301.34375</v>
@@ -5896,7 +5896,7 @@
         <v>330484.1875</v>
       </c>
       <c r="H12">
-        <v>38438.703125</v>
+        <v>359176.21875</v>
       </c>
       <c r="I12">
         <v>172981.15625</v>
@@ -5949,7 +5949,7 @@
         <v>293207.78125</v>
       </c>
       <c r="H13">
-        <v>170252.03125</v>
+        <v>431064.34375</v>
       </c>
       <c r="I13">
         <v>124132.140625</v>
@@ -6002,7 +6002,7 @@
         <v>407143.59375</v>
       </c>
       <c r="H14">
-        <v>582532.9375</v>
+        <v>659699.8125</v>
       </c>
       <c r="I14">
         <v>142263.78125</v>
@@ -6055,7 +6055,7 @@
         <v>655295.875</v>
       </c>
       <c r="H15">
-        <v>962158.25</v>
+        <v>872417.6875</v>
       </c>
       <c r="I15">
         <v>109736.0546875</v>
@@ -6108,7 +6108,7 @@
         <v>153780.984375</v>
       </c>
       <c r="H16">
-        <v>1019800.25</v>
+        <v>924935.375</v>
       </c>
       <c r="I16">
         <v>12561.7314453125</v>
@@ -6161,7 +6161,7 @@
         <v>8510.306640625</v>
       </c>
       <c r="H17">
-        <v>983305.1875</v>
+        <v>881908.9375</v>
       </c>
       <c r="I17">
         <v>-753.093505859375</v>
@@ -6214,7 +6214,7 @@
         <v>15306.8759765625</v>
       </c>
       <c r="H18">
-        <v>961593.6875</v>
+        <v>819581.3125</v>
       </c>
       <c r="I18">
         <v>16625.58984375</v>
@@ -6267,7 +6267,7 @@
         <v>41138.296875</v>
       </c>
       <c r="H19">
-        <v>939882.1875</v>
+        <v>757253.75</v>
       </c>
       <c r="I19">
         <v>29903.6484375</v>
@@ -6320,7 +6320,7 @@
         <v>16770.466796875</v>
       </c>
       <c r="H20">
-        <v>777723.3125</v>
+        <v>777015.6875</v>
       </c>
       <c r="I20">
         <v>1682.453369140625</v>
@@ -6373,7 +6373,7 @@
         <v>-3196.13916015625</v>
       </c>
       <c r="H21">
-        <v>539978.1875</v>
+        <v>760373.9375</v>
       </c>
       <c r="I21">
         <v>866.08642578125</v>
@@ -6426,7 +6426,7 @@
         <v>7162.64208984375</v>
       </c>
       <c r="H22">
-        <v>692871.875</v>
+        <v>785539.3125</v>
       </c>
       <c r="I22">
         <v>5407.09228515625</v>
@@ -6479,7 +6479,7 @@
         <v>5052.06591796875</v>
       </c>
       <c r="H23">
-        <v>886666.4375</v>
+        <v>815299.1875</v>
       </c>
       <c r="I23">
         <v>12553.9609375</v>
@@ -6532,7 +6532,7 @@
         <v>-10857.814453125</v>
       </c>
       <c r="H24">
-        <v>782786.125</v>
+        <v>763306.1875</v>
       </c>
       <c r="I24">
         <v>-1006.192138671875</v>
@@ -6585,7 +6585,7 @@
         <v>-1352.635864257812</v>
       </c>
       <c r="H25">
-        <v>716490.875</v>
+        <v>706610.125</v>
       </c>
       <c r="I25">
         <v>-2467.7333984375</v>
@@ -6638,7 +6638,7 @@
         <v>4685.14990234375</v>
       </c>
       <c r="H26">
-        <v>773270.5</v>
+        <v>649122.625</v>
       </c>
       <c r="I26">
         <v>-1467.131958007812</v>
@@ -6691,7 +6691,7 @@
         <v>45478.18359375</v>
       </c>
       <c r="H27">
-        <v>858520.375</v>
+        <v>590738.8125</v>
       </c>
       <c r="I27">
         <v>9355.7060546875</v>
@@ -6744,7 +6744,7 @@
         <v>5839.4033203125</v>
       </c>
       <c r="H28">
-        <v>958334.1875</v>
+        <v>528269.625</v>
       </c>
       <c r="I28">
         <v>-3597.2763671875</v>
@@ -6797,7 +6797,7 @@
         <v>2322.7490234375</v>
       </c>
       <c r="H29">
-        <v>1050609.875</v>
+        <v>548646.4375</v>
       </c>
       <c r="I29">
         <v>-3871.5400390625</v>
@@ -6850,7 +6850,7 @@
         <v>4944.7998046875</v>
       </c>
       <c r="H30">
-        <v>1035103</v>
+        <v>661317.6875</v>
       </c>
       <c r="I30">
         <v>-1631.453002929688</v>
@@ -6903,7 +6903,7 @@
         <v>18922.890625</v>
       </c>
       <c r="H31">
-        <v>966290.875</v>
+        <v>802228.3125</v>
       </c>
       <c r="I31">
         <v>-4126.79931640625</v>
@@ -6956,7 +6956,7 @@
         <v>19048.12890625</v>
       </c>
       <c r="H32">
-        <v>967671.375</v>
+        <v>916069.8125</v>
       </c>
       <c r="I32">
         <v>-10588.7626953125</v>
@@ -7009,7 +7009,7 @@
         <v>15862.388671875</v>
       </c>
       <c r="H33">
-        <v>995815.1875</v>
+        <v>957443.625</v>
       </c>
       <c r="I33">
         <v>85.2742919921875</v>
@@ -7062,7 +7062,7 @@
         <v>-13442.291015625</v>
       </c>
       <c r="H34">
-        <v>1001255.375</v>
+        <v>957169.25</v>
       </c>
       <c r="I34">
         <v>99.90364074707031</v>
